--- a/data/pca/factorExposure/factorExposure_2019-05-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1255141059831609</v>
+        <v>0.07847608141485934</v>
       </c>
       <c r="C2">
-        <v>0.01504015327558079</v>
+        <v>-0.02321373357615106</v>
       </c>
       <c r="D2">
-        <v>0.04170790505376843</v>
+        <v>0.04325962603736641</v>
       </c>
       <c r="E2">
-        <v>-0.09413633117641181</v>
+        <v>-0.03884257355427568</v>
       </c>
       <c r="F2">
-        <v>0.1000565986235581</v>
+        <v>-0.1368981207714498</v>
       </c>
       <c r="G2">
-        <v>0.1279518001779213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.09067766423011224</v>
+      </c>
+      <c r="H2">
+        <v>-0.08991996202688504</v>
+      </c>
+      <c r="I2">
+        <v>0.02516655219932337</v>
+      </c>
+      <c r="J2">
+        <v>-0.04223841789581376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2108861368451388</v>
+        <v>0.1584523635276426</v>
       </c>
       <c r="C3">
-        <v>-0.09169010877339419</v>
+        <v>-0.09064279769713839</v>
       </c>
       <c r="D3">
-        <v>-0.01342711603768269</v>
+        <v>-0.03496235108001224</v>
       </c>
       <c r="E3">
-        <v>-0.3271402122190022</v>
+        <v>-0.0407547810397026</v>
       </c>
       <c r="F3">
-        <v>0.02446231594310575</v>
+        <v>-0.3767959698455283</v>
       </c>
       <c r="G3">
-        <v>0.3584497157979424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.009945728504351317</v>
+      </c>
+      <c r="H3">
+        <v>-0.2794639584909613</v>
+      </c>
+      <c r="I3">
+        <v>0.1815093009766169</v>
+      </c>
+      <c r="J3">
+        <v>-0.3897953416741953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09702658215011761</v>
+        <v>0.07347864433492696</v>
       </c>
       <c r="C4">
-        <v>-0.02650951870603172</v>
+        <v>-0.03774579268639047</v>
       </c>
       <c r="D4">
-        <v>0.01952215122549924</v>
+        <v>0.02176370854908204</v>
       </c>
       <c r="E4">
-        <v>-0.07369551999801836</v>
+        <v>0.02431462383408239</v>
       </c>
       <c r="F4">
-        <v>0.05073493684751984</v>
+        <v>-0.09295921514313769</v>
       </c>
       <c r="G4">
-        <v>0.03520412727841948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03405621452972299</v>
+      </c>
+      <c r="H4">
+        <v>-0.03199756504414109</v>
+      </c>
+      <c r="I4">
+        <v>0.02269474210738808</v>
+      </c>
+      <c r="J4">
+        <v>-0.04216029899855061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01731423469970747</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.004369643538412544</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0006536113105614179</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005249924002854425</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.00243605174756815</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01876410140031855</v>
+      </c>
+      <c r="H6">
+        <v>-0.0007034190614222675</v>
+      </c>
+      <c r="I6">
+        <v>-0.007978744848486525</v>
+      </c>
+      <c r="J6">
+        <v>0.001611031570142585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04148296099737542</v>
+        <v>0.03182960208394735</v>
       </c>
       <c r="C7">
-        <v>-0.005570343949975303</v>
+        <v>-0.01871527115175373</v>
       </c>
       <c r="D7">
-        <v>0.03481458007771001</v>
+        <v>0.01845799540362148</v>
       </c>
       <c r="E7">
-        <v>-0.07677155914255768</v>
+        <v>0.006963571773624902</v>
       </c>
       <c r="F7">
-        <v>-0.03816039586575441</v>
+        <v>-0.06164342491329269</v>
       </c>
       <c r="G7">
-        <v>0.01682272125566659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01554337849855081</v>
+      </c>
+      <c r="H7">
+        <v>-0.04997382403366044</v>
+      </c>
+      <c r="I7">
+        <v>-0.001206526288400477</v>
+      </c>
+      <c r="J7">
+        <v>-0.009402445881114838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04088689077178686</v>
+        <v>0.03094178130659035</v>
       </c>
       <c r="C8">
-        <v>-0.03922869569349471</v>
+        <v>-0.04011980244779257</v>
       </c>
       <c r="D8">
-        <v>0.002128557097006948</v>
+        <v>0.00476924146646168</v>
       </c>
       <c r="E8">
-        <v>-0.07158861130869622</v>
+        <v>0.01537089058673907</v>
       </c>
       <c r="F8">
-        <v>0.00201205798485735</v>
+        <v>-0.08411517794910232</v>
       </c>
       <c r="G8">
-        <v>0.05429457291793283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.001729223295463199</v>
+      </c>
+      <c r="H8">
+        <v>-0.0537214265251116</v>
+      </c>
+      <c r="I8">
+        <v>0.02811288044095647</v>
+      </c>
+      <c r="J8">
+        <v>-0.03809520831597294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08559472682417253</v>
+        <v>0.06248235034076903</v>
       </c>
       <c r="C9">
-        <v>-0.02970899862864489</v>
+        <v>-0.03784293909658731</v>
       </c>
       <c r="D9">
-        <v>0.03021416750762519</v>
+        <v>0.02260063664905141</v>
       </c>
       <c r="E9">
-        <v>-0.06668417081439036</v>
+        <v>0.02648980474016988</v>
       </c>
       <c r="F9">
-        <v>0.03195378323823926</v>
+        <v>-0.09361243469757582</v>
       </c>
       <c r="G9">
-        <v>0.03449384700009954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0259478629856625</v>
+      </c>
+      <c r="H9">
+        <v>-0.02910093365593913</v>
+      </c>
+      <c r="I9">
+        <v>0.003088368701911248</v>
+      </c>
+      <c r="J9">
+        <v>-0.006198100956207586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.008447813730393789</v>
+        <v>0.01515308898133182</v>
       </c>
       <c r="C10">
-        <v>0.1597592946545516</v>
+        <v>0.1573002440714238</v>
       </c>
       <c r="D10">
-        <v>-0.007281633717709456</v>
+        <v>-0.01020724807885063</v>
       </c>
       <c r="E10">
-        <v>-0.05878351284847294</v>
+        <v>-0.03020455827555047</v>
       </c>
       <c r="F10">
-        <v>0.01520337902346306</v>
+        <v>-0.06052869016174685</v>
       </c>
       <c r="G10">
-        <v>-0.003985640502265572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02213282576408231</v>
+      </c>
+      <c r="H10">
+        <v>0.00620154172640538</v>
+      </c>
+      <c r="I10">
+        <v>0.118148452351826</v>
+      </c>
+      <c r="J10">
+        <v>-0.009728695452710561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05751678445818639</v>
+        <v>0.04875225612394638</v>
       </c>
       <c r="C11">
-        <v>-0.005356466811917432</v>
+        <v>-0.02386687164094856</v>
       </c>
       <c r="D11">
-        <v>-0.008625654936046594</v>
+        <v>0.006335779264893852</v>
       </c>
       <c r="E11">
-        <v>-0.04142742016805231</v>
+        <v>-0.01498683824856662</v>
       </c>
       <c r="F11">
-        <v>0.006601423475085499</v>
+        <v>-0.04436065250667854</v>
       </c>
       <c r="G11">
-        <v>-0.02147558495112413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.001667544757428953</v>
+      </c>
+      <c r="H11">
+        <v>-0.01395654680222156</v>
+      </c>
+      <c r="I11">
+        <v>-0.02058770199472225</v>
+      </c>
+      <c r="J11">
+        <v>-0.009701954279531471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04298441239764939</v>
+        <v>0.04393780898367308</v>
       </c>
       <c r="C12">
-        <v>-0.01177014789397451</v>
+        <v>-0.02327510919848231</v>
       </c>
       <c r="D12">
-        <v>-0.005713554601697704</v>
+        <v>0.005612232222595524</v>
       </c>
       <c r="E12">
-        <v>-0.03350430293818073</v>
+        <v>-0.0001722546103931607</v>
       </c>
       <c r="F12">
-        <v>0.002555380011191527</v>
+        <v>-0.0250289893271018</v>
       </c>
       <c r="G12">
-        <v>-0.002578284985471144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.004647809550724724</v>
+      </c>
+      <c r="H12">
+        <v>-0.01053347610005128</v>
+      </c>
+      <c r="I12">
+        <v>-0.0189380974782475</v>
+      </c>
+      <c r="J12">
+        <v>-0.002479341217895858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05977024126139571</v>
+        <v>0.04173322841805661</v>
       </c>
       <c r="C13">
-        <v>-0.01650577242073558</v>
+        <v>-0.02384592855575194</v>
       </c>
       <c r="D13">
-        <v>-0.007044561866503422</v>
+        <v>0.008348273156818093</v>
       </c>
       <c r="E13">
-        <v>-0.1116821657473661</v>
+        <v>-0.0270576848423496</v>
       </c>
       <c r="F13">
-        <v>0.02398410256766027</v>
+        <v>-0.1035247893133664</v>
       </c>
       <c r="G13">
-        <v>0.05276755523954051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.007541003582097802</v>
+      </c>
+      <c r="H13">
+        <v>-0.05901715935175724</v>
+      </c>
+      <c r="I13">
+        <v>0.0110521625205073</v>
+      </c>
+      <c r="J13">
+        <v>-0.03112681286335529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03709268328746053</v>
+        <v>0.02845228099640281</v>
       </c>
       <c r="C14">
-        <v>-0.009245471197748734</v>
+        <v>-0.01689925723152046</v>
       </c>
       <c r="D14">
-        <v>0.02046192247665335</v>
+        <v>0.02169982073266913</v>
       </c>
       <c r="E14">
-        <v>-0.02137978763755248</v>
+        <v>0.00653423858258585</v>
       </c>
       <c r="F14">
-        <v>-0.003266656414172477</v>
+        <v>-0.04099332062597823</v>
       </c>
       <c r="G14">
-        <v>0.03773496404194577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0127131261490333</v>
+      </c>
+      <c r="H14">
+        <v>-0.05795567456541028</v>
+      </c>
+      <c r="I14">
+        <v>0.01519138701951975</v>
+      </c>
+      <c r="J14">
+        <v>0.01008263795814048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04736395985563126</v>
+        <v>0.04281322724131446</v>
       </c>
       <c r="C16">
-        <v>-0.02160759471719815</v>
+        <v>-0.03192574819851216</v>
       </c>
       <c r="D16">
-        <v>-0.01591638461172904</v>
+        <v>0.0008677928740452356</v>
       </c>
       <c r="E16">
-        <v>-0.03871097804482802</v>
+        <v>-0.01055840623951978</v>
       </c>
       <c r="F16">
-        <v>0.0009669026608137668</v>
+        <v>-0.03761087046669593</v>
       </c>
       <c r="G16">
-        <v>-0.01481431531274915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.009742486977799239</v>
+      </c>
+      <c r="H16">
+        <v>-0.01616025146388941</v>
+      </c>
+      <c r="I16">
+        <v>-0.0171824589876316</v>
+      </c>
+      <c r="J16">
+        <v>-0.007599516094637469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05156034033842342</v>
+        <v>0.04511990724342247</v>
       </c>
       <c r="C19">
-        <v>-0.02644093482109573</v>
+        <v>-0.03513948142420307</v>
       </c>
       <c r="D19">
-        <v>0.00106120096070295</v>
+        <v>0.008842416785895816</v>
       </c>
       <c r="E19">
-        <v>-0.07927398977658449</v>
+        <v>-0.009093065443201461</v>
       </c>
       <c r="F19">
-        <v>-0.005596733533075078</v>
+        <v>-0.09071099739839902</v>
       </c>
       <c r="G19">
-        <v>0.07071430793226334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.005862100294205499</v>
+      </c>
+      <c r="H19">
+        <v>-0.08266556082828319</v>
+      </c>
+      <c r="I19">
+        <v>0.03729537315352283</v>
+      </c>
+      <c r="J19">
+        <v>-0.02380450630250791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03619506428187117</v>
+        <v>0.01695091026919806</v>
       </c>
       <c r="C20">
-        <v>-0.03448364849931394</v>
+        <v>-0.03299904393062487</v>
       </c>
       <c r="D20">
-        <v>0.01304097325375738</v>
+        <v>0.01307867993576577</v>
       </c>
       <c r="E20">
-        <v>-0.06743077836367103</v>
+        <v>0.005981498201541198</v>
       </c>
       <c r="F20">
-        <v>-0.01132302449063591</v>
+        <v>-0.07587558244984086</v>
       </c>
       <c r="G20">
-        <v>0.04368262985940516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01019987703059807</v>
+      </c>
+      <c r="H20">
+        <v>-0.07377328241155506</v>
+      </c>
+      <c r="I20">
+        <v>0.01629240913797899</v>
+      </c>
+      <c r="J20">
+        <v>-0.0488416641218091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03887074974186592</v>
+        <v>0.02062344005288044</v>
       </c>
       <c r="C21">
-        <v>-0.01623982850082858</v>
+        <v>-0.02660342154499011</v>
       </c>
       <c r="D21">
-        <v>-0.0005965402665920474</v>
+        <v>-0.004222023056528193</v>
       </c>
       <c r="E21">
-        <v>-0.08810068688868519</v>
+        <v>0.003968742162238048</v>
       </c>
       <c r="F21">
-        <v>0.04897401518221049</v>
+        <v>-0.08248221784584449</v>
       </c>
       <c r="G21">
-        <v>0.04200596307954808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02140038660780067</v>
+      </c>
+      <c r="H21">
+        <v>-0.03917836444000009</v>
+      </c>
+      <c r="I21">
+        <v>-0.007394931261486402</v>
+      </c>
+      <c r="J21">
+        <v>0.01746908745277653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04791200943874672</v>
+        <v>0.0412458131620334</v>
       </c>
       <c r="C24">
-        <v>-0.01432058850027373</v>
+        <v>-0.02115820384827916</v>
       </c>
       <c r="D24">
-        <v>-0.003247265203981592</v>
+        <v>0.005781962395079503</v>
       </c>
       <c r="E24">
-        <v>-0.04840592173549185</v>
+        <v>-0.007587441539319103</v>
       </c>
       <c r="F24">
-        <v>0.003340667536724046</v>
+        <v>-0.0454320338828862</v>
       </c>
       <c r="G24">
-        <v>-0.01023658905875749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01029104268350208</v>
+      </c>
+      <c r="H24">
+        <v>-0.0140803258380792</v>
+      </c>
+      <c r="I24">
+        <v>-0.01713058786069454</v>
+      </c>
+      <c r="J24">
+        <v>-0.01761307921095028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04824864588563042</v>
+        <v>0.04300139727733917</v>
       </c>
       <c r="C25">
-        <v>-0.003996006014113158</v>
+        <v>-0.02123529887234962</v>
       </c>
       <c r="D25">
-        <v>-0.005295031178951758</v>
+        <v>0.003970341467301293</v>
       </c>
       <c r="E25">
-        <v>-0.04581685799390414</v>
+        <v>-0.009739492293809861</v>
       </c>
       <c r="F25">
-        <v>0.010958768091792</v>
+        <v>-0.04897538977635786</v>
       </c>
       <c r="G25">
-        <v>-0.01145476376587725</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.002463137663936461</v>
+      </c>
+      <c r="H25">
+        <v>-0.009926888092107291</v>
+      </c>
+      <c r="I25">
+        <v>-0.01878499534270358</v>
+      </c>
+      <c r="J25">
+        <v>-0.007846199007044414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.007072477276858656</v>
+        <v>0.01257437725874851</v>
       </c>
       <c r="C26">
-        <v>-0.01572632432204076</v>
+        <v>-0.01791293823354786</v>
       </c>
       <c r="D26">
-        <v>0.004877609055977916</v>
+        <v>-0.000481152812082063</v>
       </c>
       <c r="E26">
-        <v>-0.04972965255938303</v>
+        <v>-0.0188547333070513</v>
       </c>
       <c r="F26">
-        <v>0.01851714904423921</v>
+        <v>-0.05228498935118034</v>
       </c>
       <c r="G26">
-        <v>0.01267464782651174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.007685951823268227</v>
+      </c>
+      <c r="H26">
+        <v>-0.03828895866273051</v>
+      </c>
+      <c r="I26">
+        <v>-0.007189030784535855</v>
+      </c>
+      <c r="J26">
+        <v>-0.01448951186513519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1098240359795023</v>
+        <v>0.08204487928358177</v>
       </c>
       <c r="C27">
-        <v>-0.01864566737983564</v>
+        <v>-0.02682474749826505</v>
       </c>
       <c r="D27">
-        <v>0.02238686163286272</v>
+        <v>0.02810229123166483</v>
       </c>
       <c r="E27">
-        <v>-0.1105863926432879</v>
+        <v>0.009205535125765997</v>
       </c>
       <c r="F27">
-        <v>0.02783981302827991</v>
+        <v>-0.08575005353026832</v>
       </c>
       <c r="G27">
-        <v>-0.0007620975592219702</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.006108790267903372</v>
+      </c>
+      <c r="H27">
+        <v>-0.009688287204179987</v>
+      </c>
+      <c r="I27">
+        <v>0.00997064277064846</v>
+      </c>
+      <c r="J27">
+        <v>-0.02748759310254172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.006572487920505884</v>
+        <v>0.02961419974268708</v>
       </c>
       <c r="C28">
-        <v>0.2441417650543927</v>
+        <v>0.2338657261144695</v>
       </c>
       <c r="D28">
-        <v>-0.01546734085830795</v>
+        <v>-0.01545799129102164</v>
       </c>
       <c r="E28">
-        <v>-0.03064114132609548</v>
+        <v>-0.02566667827689835</v>
       </c>
       <c r="F28">
-        <v>0.01319119211600549</v>
+        <v>-0.04471555160678192</v>
       </c>
       <c r="G28">
-        <v>-0.01526892489225483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02689516145108396</v>
+      </c>
+      <c r="H28">
+        <v>0.02600646069645664</v>
+      </c>
+      <c r="I28">
+        <v>0.1678344072125663</v>
+      </c>
+      <c r="J28">
+        <v>-0.02745982548904534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02099104972078848</v>
+        <v>0.02140901394855876</v>
       </c>
       <c r="C29">
-        <v>-0.01621738775406157</v>
+        <v>-0.01880810437126456</v>
       </c>
       <c r="D29">
-        <v>0.02174389664755384</v>
+        <v>0.01959155401748614</v>
       </c>
       <c r="E29">
-        <v>-0.02830494305945337</v>
+        <v>0.01243324666309824</v>
       </c>
       <c r="F29">
-        <v>0.006686847372407064</v>
+        <v>-0.04213675488839207</v>
       </c>
       <c r="G29">
-        <v>0.03645593308023753</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01312341522206041</v>
+      </c>
+      <c r="H29">
+        <v>-0.05647562879918579</v>
+      </c>
+      <c r="I29">
+        <v>0.004019820814374761</v>
+      </c>
+      <c r="J29">
+        <v>0.02619532506926204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1051702928437606</v>
+        <v>0.09834112248628084</v>
       </c>
       <c r="C30">
-        <v>-0.008651470676052715</v>
+        <v>-0.0369289946340224</v>
       </c>
       <c r="D30">
-        <v>0.0207551152640931</v>
+        <v>0.03434349081415461</v>
       </c>
       <c r="E30">
-        <v>-0.1137095622901013</v>
+        <v>-0.02198914024652087</v>
       </c>
       <c r="F30">
-        <v>0.02929391417867976</v>
+        <v>-0.1081532045262297</v>
       </c>
       <c r="G30">
-        <v>-0.06751121993859775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01047128411353102</v>
+      </c>
+      <c r="H30">
+        <v>-0.01150618027323137</v>
+      </c>
+      <c r="I30">
+        <v>-0.02866296519283371</v>
+      </c>
+      <c r="J30">
+        <v>-5.297043164025264e-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05697388685027462</v>
+        <v>0.06030926118897278</v>
       </c>
       <c r="C31">
-        <v>-0.01260568657253681</v>
+        <v>-0.02062205274728865</v>
       </c>
       <c r="D31">
-        <v>0.01331308466851736</v>
+        <v>0.01974834607773528</v>
       </c>
       <c r="E31">
-        <v>0.0204749274457135</v>
+        <v>-0.01245000567846621</v>
       </c>
       <c r="F31">
-        <v>0.005620211315037909</v>
+        <v>-0.004915831078785148</v>
       </c>
       <c r="G31">
-        <v>0.005013215799956896</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.0330469866686683</v>
+      </c>
+      <c r="H31">
+        <v>-0.04695507214727668</v>
+      </c>
+      <c r="I31">
+        <v>0.00904305847000785</v>
+      </c>
+      <c r="J31">
+        <v>0.02141145788959902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06943831675307166</v>
+        <v>0.04662644246829524</v>
       </c>
       <c r="C32">
-        <v>-0.0280385491966652</v>
+        <v>-0.04762178090951096</v>
       </c>
       <c r="D32">
-        <v>0.01537604796747663</v>
+        <v>0.02017671055735067</v>
       </c>
       <c r="E32">
-        <v>-0.1172560866829554</v>
+        <v>0.01033410094473542</v>
       </c>
       <c r="F32">
-        <v>-0.0002044938982924331</v>
+        <v>-0.1020534489900913</v>
       </c>
       <c r="G32">
-        <v>0.02810417843034919</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.004736238287836314</v>
+      </c>
+      <c r="H32">
+        <v>-0.04355768537537166</v>
+      </c>
+      <c r="I32">
+        <v>0.02057334332561587</v>
+      </c>
+      <c r="J32">
+        <v>0.0111053555233026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06787195167831174</v>
+        <v>0.05878185910580506</v>
       </c>
       <c r="C33">
-        <v>-0.03158734384285451</v>
+        <v>-0.0472074210999665</v>
       </c>
       <c r="D33">
-        <v>0.009499855726939489</v>
+        <v>0.006287505451354532</v>
       </c>
       <c r="E33">
-        <v>-0.0718478588662284</v>
+        <v>-0.01713172865493676</v>
       </c>
       <c r="F33">
-        <v>0.04653986849867102</v>
+        <v>-0.08440399740762333</v>
       </c>
       <c r="G33">
-        <v>0.0255733004540556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01845664418067196</v>
+      </c>
+      <c r="H33">
+        <v>-0.04949415892624737</v>
+      </c>
+      <c r="I33">
+        <v>-0.01596851764441205</v>
+      </c>
+      <c r="J33">
+        <v>-0.0108859479909506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04705695662227524</v>
+        <v>0.04262000361199946</v>
       </c>
       <c r="C34">
-        <v>-0.01344073870814035</v>
+        <v>-0.02779654148260843</v>
       </c>
       <c r="D34">
-        <v>-0.005656197913830796</v>
+        <v>0.009451178513879336</v>
       </c>
       <c r="E34">
-        <v>-0.02708177137384712</v>
+        <v>-0.006226759686477036</v>
       </c>
       <c r="F34">
-        <v>-0.00258255175120379</v>
+        <v>-0.03800564656681366</v>
       </c>
       <c r="G34">
-        <v>0.001888540599092382</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.001200964462954189</v>
+      </c>
+      <c r="H34">
+        <v>-0.02098746227170562</v>
+      </c>
+      <c r="I34">
+        <v>-0.01680262079205325</v>
+      </c>
+      <c r="J34">
+        <v>-0.000866560336934321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01260350691060044</v>
+        <v>0.01447666847256293</v>
       </c>
       <c r="C36">
-        <v>0.01002516843310499</v>
+        <v>-0.00138032967644528</v>
       </c>
       <c r="D36">
-        <v>0.005739357484310871</v>
+        <v>0.007200612425584249</v>
       </c>
       <c r="E36">
-        <v>-0.02302662512455449</v>
+        <v>0.001020091766992353</v>
       </c>
       <c r="F36">
-        <v>0.008592919490368433</v>
+        <v>-0.0310668175081584</v>
       </c>
       <c r="G36">
-        <v>0.01052493534735466</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01373930371076906</v>
+      </c>
+      <c r="H36">
+        <v>-0.03324745612003419</v>
+      </c>
+      <c r="I36">
+        <v>0.001726401403709082</v>
+      </c>
+      <c r="J36">
+        <v>0.02200859269251206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05758821235923354</v>
+        <v>0.03321044794015829</v>
       </c>
       <c r="C38">
-        <v>-0.004852225934794711</v>
+        <v>-0.01121560909427824</v>
       </c>
       <c r="D38">
-        <v>0.02513645779952007</v>
+        <v>0.007512065471143583</v>
       </c>
       <c r="E38">
-        <v>-0.03302730384688592</v>
+        <v>0.0001789645714546677</v>
       </c>
       <c r="F38">
-        <v>0.01172587622056529</v>
+        <v>-0.05392842184040181</v>
       </c>
       <c r="G38">
-        <v>0.04340737162842537</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02463153547980286</v>
+      </c>
+      <c r="H38">
+        <v>-0.01803966145631651</v>
+      </c>
+      <c r="I38">
+        <v>-0.002866485491823262</v>
+      </c>
+      <c r="J38">
+        <v>0.02896657007379963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07407658538709157</v>
+        <v>0.0578179074651623</v>
       </c>
       <c r="C39">
-        <v>-0.01226405901559322</v>
+        <v>-0.03647395344049927</v>
       </c>
       <c r="D39">
-        <v>0.0008202370730223818</v>
+        <v>0.01661414385611107</v>
       </c>
       <c r="E39">
-        <v>-0.04650616798569585</v>
+        <v>-0.01682828451881509</v>
       </c>
       <c r="F39">
-        <v>0.02322520267958478</v>
+        <v>-0.05972292558927678</v>
       </c>
       <c r="G39">
-        <v>-0.008979779321752202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.009671014960611242</v>
+      </c>
+      <c r="H39">
+        <v>-0.01674249328824435</v>
+      </c>
+      <c r="I39">
+        <v>-0.03500452900035089</v>
+      </c>
+      <c r="J39">
+        <v>-0.003667187039821978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.06825289210716125</v>
+        <v>0.05585183590254187</v>
       </c>
       <c r="C40">
-        <v>-0.02728314379946549</v>
+        <v>-0.03618811480583852</v>
       </c>
       <c r="D40">
-        <v>0.006680334058446744</v>
+        <v>0.02494403057033658</v>
       </c>
       <c r="E40">
-        <v>-0.1136036693282752</v>
+        <v>-0.03231422013304408</v>
       </c>
       <c r="F40">
-        <v>0.03986720180752355</v>
+        <v>-0.1078655850720099</v>
       </c>
       <c r="G40">
-        <v>0.0990041416923273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0006271238740105153</v>
+      </c>
+      <c r="H40">
+        <v>-0.07889351446129314</v>
+      </c>
+      <c r="I40">
+        <v>0.007315075280962662</v>
+      </c>
+      <c r="J40">
+        <v>-0.05395679156310345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004576953675793373</v>
+        <v>0.00217705843431232</v>
       </c>
       <c r="C41">
-        <v>-0.01299326631888098</v>
+        <v>-0.01194801678046622</v>
       </c>
       <c r="D41">
-        <v>0.01751234212281865</v>
+        <v>0.00526899834931971</v>
       </c>
       <c r="E41">
-        <v>-0.009939599034812497</v>
+        <v>0.001338093834444567</v>
       </c>
       <c r="F41">
-        <v>0.02268265650133617</v>
+        <v>-0.01778446975046248</v>
       </c>
       <c r="G41">
-        <v>0.0240233730589846</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02621879597224003</v>
+      </c>
+      <c r="H41">
+        <v>-0.03987342536551267</v>
+      </c>
+      <c r="I41">
+        <v>0.02154287045742483</v>
+      </c>
+      <c r="J41">
+        <v>0.006153782827669031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1319246792556313</v>
+        <v>0.2329599671131029</v>
       </c>
       <c r="C42">
-        <v>-0.1772944784468713</v>
+        <v>-0.1349823499187407</v>
       </c>
       <c r="D42">
-        <v>-0.9368403940443408</v>
+        <v>-0.8946606613929283</v>
       </c>
       <c r="E42">
-        <v>0.001903359797013812</v>
+        <v>-0.2454755228422179</v>
       </c>
       <c r="F42">
-        <v>-0.008365193675069837</v>
+        <v>0.1877853986089607</v>
       </c>
       <c r="G42">
-        <v>-0.1286299332126672</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.004026839795620275</v>
+      </c>
+      <c r="H42">
+        <v>0.001627554480641528</v>
+      </c>
+      <c r="I42">
+        <v>0.04811004500102274</v>
+      </c>
+      <c r="J42">
+        <v>-0.003609095828512296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008467204085772223</v>
+        <v>0.00490994660414069</v>
       </c>
       <c r="C43">
-        <v>-0.01472866210259235</v>
+        <v>-0.01435033040464085</v>
       </c>
       <c r="D43">
-        <v>0.01734221953560456</v>
+        <v>0.006090724108351421</v>
       </c>
       <c r="E43">
-        <v>-0.03149594960047563</v>
+        <v>-0.001345654982569662</v>
       </c>
       <c r="F43">
-        <v>-0.0003930397007426048</v>
+        <v>-0.03158301982260416</v>
       </c>
       <c r="G43">
-        <v>0.01785423128271651</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.009077156653403615</v>
+      </c>
+      <c r="H43">
+        <v>-0.03721732683090569</v>
+      </c>
+      <c r="I43">
+        <v>0.01295464577073854</v>
+      </c>
+      <c r="J43">
+        <v>-0.0004064605864424225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03854899676259906</v>
+        <v>0.02717671437429751</v>
       </c>
       <c r="C44">
-        <v>-0.03764426417117413</v>
+        <v>-0.03374494687964382</v>
       </c>
       <c r="D44">
-        <v>0.0118915365031658</v>
+        <v>0.002768064891817366</v>
       </c>
       <c r="E44">
-        <v>-0.1108397086477784</v>
+        <v>-0.0126407877881931</v>
       </c>
       <c r="F44">
-        <v>0.07725267309470217</v>
+        <v>-0.1235341872618418</v>
       </c>
       <c r="G44">
-        <v>0.1274082202196414</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0300944970516641</v>
+      </c>
+      <c r="H44">
+        <v>-0.1187305271874734</v>
+      </c>
+      <c r="I44">
+        <v>0.02511789740521054</v>
+      </c>
+      <c r="J44">
+        <v>-0.01113290457770564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02437319782292884</v>
+        <v>0.02315927430764383</v>
       </c>
       <c r="C46">
-        <v>-0.01355524230472364</v>
+        <v>-0.02634080924858121</v>
       </c>
       <c r="D46">
-        <v>0.02157591562813142</v>
+        <v>0.01859998850880609</v>
       </c>
       <c r="E46">
-        <v>-0.01998953868408863</v>
+        <v>-0.0007297018431981183</v>
       </c>
       <c r="F46">
-        <v>0.01917843638118026</v>
+        <v>-0.04867851820122949</v>
       </c>
       <c r="G46">
-        <v>0.03548437757324458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01374303644644789</v>
+      </c>
+      <c r="H46">
+        <v>-0.06122041852324353</v>
+      </c>
+      <c r="I46">
+        <v>0.01117962996410239</v>
+      </c>
+      <c r="J46">
+        <v>0.003157301870658547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08265293019965658</v>
+        <v>0.09023821870408191</v>
       </c>
       <c r="C47">
-        <v>-0.009069267534208888</v>
+        <v>-0.01950730813867296</v>
       </c>
       <c r="D47">
-        <v>0.01689161290989405</v>
+        <v>0.02400671765286518</v>
       </c>
       <c r="E47">
-        <v>0.02403749869869492</v>
+        <v>0.002385912795830442</v>
       </c>
       <c r="F47">
-        <v>-0.000330128190115397</v>
+        <v>0.002811879836404282</v>
       </c>
       <c r="G47">
-        <v>0.02365213762279953</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.029335060937995</v>
+      </c>
+      <c r="H47">
+        <v>-0.06263875544560585</v>
+      </c>
+      <c r="I47">
+        <v>0.01711625090592586</v>
+      </c>
+      <c r="J47">
+        <v>0.008877672253869293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01506644215484399</v>
+        <v>0.01680236917030997</v>
       </c>
       <c r="C48">
-        <v>-0.01663466357381676</v>
+        <v>-0.01980561482202574</v>
       </c>
       <c r="D48">
-        <v>0.01623689998240218</v>
+        <v>0.00830721114000582</v>
       </c>
       <c r="E48">
-        <v>-0.03371376222525926</v>
+        <v>0.003618772092102282</v>
       </c>
       <c r="F48">
-        <v>0.01560908171900911</v>
+        <v>-0.03694550208180344</v>
       </c>
       <c r="G48">
-        <v>0.01070408423194747</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.007043987196409985</v>
+      </c>
+      <c r="H48">
+        <v>-0.02460152855887579</v>
+      </c>
+      <c r="I48">
+        <v>0.01039025606696696</v>
+      </c>
+      <c r="J48">
+        <v>0.003589289526883717</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08295964415179791</v>
+        <v>0.08630285968167144</v>
       </c>
       <c r="C50">
-        <v>-0.02569265965109955</v>
+        <v>-0.03425584526104676</v>
       </c>
       <c r="D50">
-        <v>0.0250769259780004</v>
+        <v>0.0178417602279678</v>
       </c>
       <c r="E50">
-        <v>0.02395881526518906</v>
+        <v>0.004982316398992134</v>
       </c>
       <c r="F50">
-        <v>-0.001346482348677518</v>
+        <v>-0.003175873795327508</v>
       </c>
       <c r="G50">
-        <v>0.00805291845550498</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>4.161306822418662e-05</v>
+      </c>
+      <c r="H50">
+        <v>-0.04886662197413644</v>
+      </c>
+      <c r="I50">
+        <v>-0.003023886866033951</v>
+      </c>
+      <c r="J50">
+        <v>0.04942610125740724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06921208222142129</v>
+        <v>0.04704252280655312</v>
       </c>
       <c r="C51">
-        <v>0.02191420789013561</v>
+        <v>0.002999151239290968</v>
       </c>
       <c r="D51">
-        <v>-0.001983638483122006</v>
+        <v>0.01303074183616275</v>
       </c>
       <c r="E51">
-        <v>-0.07368609951421261</v>
+        <v>-0.03354546857353364</v>
       </c>
       <c r="F51">
-        <v>0.05290871200181933</v>
+        <v>-0.09112279060916635</v>
       </c>
       <c r="G51">
-        <v>0.0152006029587219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04353592821600834</v>
+      </c>
+      <c r="H51">
+        <v>-0.06474382487631927</v>
+      </c>
+      <c r="I51">
+        <v>0.03193472958238967</v>
+      </c>
+      <c r="J51">
+        <v>0.01154384171911962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1475045607567626</v>
+        <v>0.1282879435457357</v>
       </c>
       <c r="C53">
-        <v>-0.01089110871315597</v>
+        <v>-0.03653109857404029</v>
       </c>
       <c r="D53">
-        <v>0.0385058786315897</v>
+        <v>0.04537742403411539</v>
       </c>
       <c r="E53">
-        <v>0.04139175507035962</v>
+        <v>0.01200346095363757</v>
       </c>
       <c r="F53">
-        <v>-0.01621131145677843</v>
+        <v>0.0326683724265287</v>
       </c>
       <c r="G53">
-        <v>-0.01333771164904457</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02164713065962255</v>
+      </c>
+      <c r="H53">
+        <v>-0.002550249904060844</v>
+      </c>
+      <c r="I53">
+        <v>0.03014545012956307</v>
+      </c>
+      <c r="J53">
+        <v>-0.03203997905771341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02513692072848105</v>
+        <v>0.0216890606386076</v>
       </c>
       <c r="C54">
-        <v>0.004507387775982417</v>
+        <v>-0.007668952567134133</v>
       </c>
       <c r="D54">
-        <v>0.02745321959327977</v>
+        <v>0.02309822397215011</v>
       </c>
       <c r="E54">
-        <v>-0.02841193934696926</v>
+        <v>0.01063612462782639</v>
       </c>
       <c r="F54">
-        <v>0.04042729041084481</v>
+        <v>-0.04562457003443581</v>
       </c>
       <c r="G54">
-        <v>0.0513758694805594</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03288774999003404</v>
+      </c>
+      <c r="H54">
+        <v>-0.05488266959655597</v>
+      </c>
+      <c r="I54">
+        <v>0.03172701659219088</v>
+      </c>
+      <c r="J54">
+        <v>0.0295436478857693</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09788834375586847</v>
+        <v>0.101780612170607</v>
       </c>
       <c r="C55">
-        <v>0.002429065410452523</v>
+        <v>-0.02004654240897798</v>
       </c>
       <c r="D55">
-        <v>0.0363279806587903</v>
+        <v>0.02738812320771093</v>
       </c>
       <c r="E55">
-        <v>0.006066009757700481</v>
+        <v>0.03525154078192853</v>
       </c>
       <c r="F55">
-        <v>-0.03089912323211549</v>
+        <v>0.01664466902591366</v>
       </c>
       <c r="G55">
-        <v>-0.0120204931190494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01266719542717016</v>
+      </c>
+      <c r="H55">
+        <v>-0.01857593678678092</v>
+      </c>
+      <c r="I55">
+        <v>0.007489255481755772</v>
+      </c>
+      <c r="J55">
+        <v>-0.02025141579553338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1800404828708626</v>
+        <v>0.1689268360265992</v>
       </c>
       <c r="C56">
-        <v>0.01798662749935842</v>
+        <v>-0.01644579210860824</v>
       </c>
       <c r="D56">
-        <v>0.07201473865886959</v>
+        <v>0.08100466531153508</v>
       </c>
       <c r="E56">
-        <v>0.07296388545712772</v>
+        <v>0.04097410824940316</v>
       </c>
       <c r="F56">
-        <v>-0.07036077275886131</v>
+        <v>0.06860120159442687</v>
       </c>
       <c r="G56">
-        <v>-0.02602196373638915</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02067000641043078</v>
+      </c>
+      <c r="H56">
+        <v>0.03687171345428972</v>
+      </c>
+      <c r="I56">
+        <v>-0.00291215370377038</v>
+      </c>
+      <c r="J56">
+        <v>-0.05889537747158582</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08894419003943406</v>
+        <v>0.07041152748036003</v>
       </c>
       <c r="C57">
-        <v>-0.02448857130605674</v>
+        <v>-0.02920261434654255</v>
       </c>
       <c r="D57">
-        <v>0.02291145693911175</v>
+        <v>0.01464631563505058</v>
       </c>
       <c r="E57">
-        <v>-0.06162192529322932</v>
+        <v>-0.01738269076028007</v>
       </c>
       <c r="F57">
-        <v>0.01898269324526088</v>
+        <v>-0.06835189444816427</v>
       </c>
       <c r="G57">
-        <v>0.04684829521143209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.005801858220950581</v>
+      </c>
+      <c r="H57">
+        <v>-0.0410649553024325</v>
+      </c>
+      <c r="I57">
+        <v>-0.01217873009674685</v>
+      </c>
+      <c r="J57">
+        <v>-0.03810056761860564</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1641134060936941</v>
+        <v>0.1996202023182166</v>
       </c>
       <c r="C58">
-        <v>0.003489459782896687</v>
+        <v>-0.04839476217771729</v>
       </c>
       <c r="D58">
-        <v>-0.04386292409998344</v>
+        <v>-0.01099846339874821</v>
       </c>
       <c r="E58">
-        <v>-0.1462741435228965</v>
+        <v>-0.05730371897431995</v>
       </c>
       <c r="F58">
-        <v>-0.06806456924895032</v>
+        <v>-0.1896969590131957</v>
       </c>
       <c r="G58">
-        <v>0.2620779582080829</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1783828401857356</v>
+      </c>
+      <c r="H58">
+        <v>-0.3088155660637892</v>
+      </c>
+      <c r="I58">
+        <v>0.03888745971665793</v>
+      </c>
+      <c r="J58">
+        <v>0.6738496359920819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.006581095214436962</v>
+        <v>0.03369859935361732</v>
       </c>
       <c r="C59">
-        <v>0.2054939544590795</v>
+        <v>0.1973309256488708</v>
       </c>
       <c r="D59">
-        <v>0.01379971559269265</v>
+        <v>0.01944522692910362</v>
       </c>
       <c r="E59">
-        <v>-0.04816385204911719</v>
+        <v>-0.0384156685858382</v>
       </c>
       <c r="F59">
-        <v>0.01173238143600246</v>
+        <v>-0.05752260313553684</v>
       </c>
       <c r="G59">
-        <v>-0.0169063866288903</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.005100917579778506</v>
+      </c>
+      <c r="H59">
+        <v>0.0205894238987101</v>
+      </c>
+      <c r="I59">
+        <v>0.07091089431369921</v>
+      </c>
+      <c r="J59">
+        <v>0.02849731855729146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1874672387069032</v>
+        <v>0.1839661154129133</v>
       </c>
       <c r="C60">
-        <v>0.1171893117289133</v>
+        <v>0.05445078741067361</v>
       </c>
       <c r="D60">
-        <v>0.03536047619723653</v>
+        <v>0.03606491190500099</v>
       </c>
       <c r="E60">
-        <v>-0.1697603130749279</v>
+        <v>-0.1053961094120639</v>
       </c>
       <c r="F60">
-        <v>0.06209241827811818</v>
+        <v>-0.18798265586673</v>
       </c>
       <c r="G60">
-        <v>-0.1730155437017781</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04899685372005248</v>
+      </c>
+      <c r="H60">
+        <v>0.2496383824284941</v>
+      </c>
+      <c r="I60">
+        <v>-0.108629474084494</v>
+      </c>
+      <c r="J60">
+        <v>0.01225584015740973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04527846440940589</v>
+        <v>0.03787264559428744</v>
       </c>
       <c r="C61">
-        <v>0.002244779729117732</v>
+        <v>-0.01763385928752496</v>
       </c>
       <c r="D61">
-        <v>-0.007864991754883555</v>
+        <v>0.003562976139365751</v>
       </c>
       <c r="E61">
-        <v>-0.05004417652408866</v>
+        <v>-0.01351621679567944</v>
       </c>
       <c r="F61">
-        <v>0.02591394953401193</v>
+        <v>-0.04755735834044111</v>
       </c>
       <c r="G61">
-        <v>-0.008421562915845508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008967654349454963</v>
+      </c>
+      <c r="H61">
+        <v>-0.007522232627699634</v>
+      </c>
+      <c r="I61">
+        <v>-0.0383641339407188</v>
+      </c>
+      <c r="J61">
+        <v>0.01735241633775872</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04520405268650265</v>
+        <v>0.03085200421118592</v>
       </c>
       <c r="C63">
-        <v>0.00766293505676745</v>
+        <v>-0.01615833507798324</v>
       </c>
       <c r="D63">
-        <v>0.01458977994429961</v>
+        <v>0.0135767632098787</v>
       </c>
       <c r="E63">
-        <v>-0.03832653146540327</v>
+        <v>-0.007446281748676232</v>
       </c>
       <c r="F63">
-        <v>0.005823066528100319</v>
+        <v>-0.03231276717715702</v>
       </c>
       <c r="G63">
-        <v>0.01454350486925145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.004051675150793635</v>
+      </c>
+      <c r="H63">
+        <v>-0.04500505822860395</v>
+      </c>
+      <c r="I63">
+        <v>0.02554471810608235</v>
+      </c>
+      <c r="J63">
+        <v>-0.02235902466921195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08593847799634019</v>
+        <v>0.06196561479698736</v>
       </c>
       <c r="C64">
-        <v>-0.03657907296418297</v>
+        <v>-0.04347918078354487</v>
       </c>
       <c r="D64">
-        <v>0.05801150175814072</v>
+        <v>0.03217721774984542</v>
       </c>
       <c r="E64">
-        <v>-0.05181067925542204</v>
+        <v>0.03255292237901503</v>
       </c>
       <c r="F64">
-        <v>0.09205202750633236</v>
+        <v>-0.06795329593271694</v>
       </c>
       <c r="G64">
-        <v>-0.05944602472873284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06157942607328304</v>
+      </c>
+      <c r="H64">
+        <v>0.01191640950448786</v>
+      </c>
+      <c r="I64">
+        <v>0.01910259301468318</v>
+      </c>
+      <c r="J64">
+        <v>-0.07586001340015328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01893339711365604</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.004379164955309674</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0007521615399754435</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005453026782138587</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0002124655712059901</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0197884758098188</v>
+      </c>
+      <c r="H65">
+        <v>0.002985657980751013</v>
+      </c>
+      <c r="I65">
+        <v>-0.009888935713192878</v>
+      </c>
+      <c r="J65">
+        <v>0.001548832561770997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09373846441046656</v>
+        <v>0.07026049661531633</v>
       </c>
       <c r="C66">
-        <v>-0.01932853681238359</v>
+        <v>-0.0510468754537649</v>
       </c>
       <c r="D66">
-        <v>0.0403768762185365</v>
+        <v>0.04437812371745666</v>
       </c>
       <c r="E66">
-        <v>-0.07727013972783532</v>
+        <v>-0.02151122271997728</v>
       </c>
       <c r="F66">
-        <v>0.04337442257381986</v>
+        <v>-0.0778925852556126</v>
       </c>
       <c r="G66">
-        <v>-0.01089625131339654</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01063077973169215</v>
+      </c>
+      <c r="H66">
+        <v>-0.01080731199816745</v>
+      </c>
+      <c r="I66">
+        <v>-0.05183350575891973</v>
+      </c>
+      <c r="J66">
+        <v>-0.03120214983802902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06507974939671014</v>
+        <v>0.04387071947699976</v>
       </c>
       <c r="C67">
-        <v>0.01898417157768781</v>
+        <v>0.005362477211343606</v>
       </c>
       <c r="D67">
-        <v>0.01272947845853428</v>
+        <v>0.007735765735905957</v>
       </c>
       <c r="E67">
-        <v>-0.02675517328681138</v>
+        <v>-0.007776070044593024</v>
       </c>
       <c r="F67">
-        <v>0.01027465810097069</v>
+        <v>-0.04096134541544248</v>
       </c>
       <c r="G67">
-        <v>0.03739419367647329</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0325346410686378</v>
+      </c>
+      <c r="H67">
+        <v>-0.001224433624879351</v>
+      </c>
+      <c r="I67">
+        <v>-0.03687259300499059</v>
+      </c>
+      <c r="J67">
+        <v>0.01171302946258415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.004231459243575623</v>
+        <v>0.03994484286164488</v>
       </c>
       <c r="C68">
-        <v>0.245931296918528</v>
+        <v>0.2341108409282815</v>
       </c>
       <c r="D68">
-        <v>0.001005363552076039</v>
+        <v>0.01273825563923037</v>
       </c>
       <c r="E68">
-        <v>-0.03105420489660242</v>
+        <v>-0.03546844854631594</v>
       </c>
       <c r="F68">
-        <v>-0.0002370636275073728</v>
+        <v>-0.03965228138231131</v>
       </c>
       <c r="G68">
-        <v>-0.005303597828502529</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.004228368577844668</v>
+      </c>
+      <c r="H68">
+        <v>0.02579279811972951</v>
+      </c>
+      <c r="I68">
+        <v>0.1761503343474587</v>
+      </c>
+      <c r="J68">
+        <v>0.02530566978670068</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06936659280937864</v>
+        <v>0.07163427439078791</v>
       </c>
       <c r="C69">
-        <v>-0.00946086372572408</v>
+        <v>-0.01886997641611748</v>
       </c>
       <c r="D69">
-        <v>0.02049213976233425</v>
+        <v>0.03091596142024217</v>
       </c>
       <c r="E69">
-        <v>0.01100622394132881</v>
+        <v>-0.00495458819079401</v>
       </c>
       <c r="F69">
-        <v>-0.002954345059713797</v>
+        <v>-0.004726709010508976</v>
       </c>
       <c r="G69">
-        <v>0.01147924885232135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02067278034944886</v>
+      </c>
+      <c r="H69">
+        <v>-0.04334528604752629</v>
+      </c>
+      <c r="I69">
+        <v>-0.004878205513102692</v>
+      </c>
+      <c r="J69">
+        <v>0.006032824144638611</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.00519144097642852</v>
+        <v>0.04276406621383146</v>
       </c>
       <c r="C71">
-        <v>0.2671501659162627</v>
+        <v>0.2513261318793673</v>
       </c>
       <c r="D71">
-        <v>0.00292069565246676</v>
+        <v>-0.005331135987209646</v>
       </c>
       <c r="E71">
-        <v>-0.0622571486104043</v>
+        <v>-0.06027289846443595</v>
       </c>
       <c r="F71">
-        <v>0.02024144680831101</v>
+        <v>-0.05851514595546873</v>
       </c>
       <c r="G71">
-        <v>-0.07956808836575037</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0198707874050433</v>
+      </c>
+      <c r="H71">
+        <v>0.03712479704330328</v>
+      </c>
+      <c r="I71">
+        <v>0.147154079483837</v>
+      </c>
+      <c r="J71">
+        <v>0.03057098228698463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1182932358692909</v>
+        <v>0.1216735038386045</v>
       </c>
       <c r="C72">
-        <v>0.01213034129629636</v>
+        <v>-0.01190968196830851</v>
       </c>
       <c r="D72">
-        <v>0.05086986682272601</v>
+        <v>0.05535186813348186</v>
       </c>
       <c r="E72">
-        <v>-0.09144203754995515</v>
+        <v>-0.006586216010401664</v>
       </c>
       <c r="F72">
-        <v>0.007791252700957656</v>
+        <v>-0.08624057186638458</v>
       </c>
       <c r="G72">
-        <v>0.05403163299563519</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04782033074336154</v>
+      </c>
+      <c r="H72">
+        <v>0.001958222711658237</v>
+      </c>
+      <c r="I72">
+        <v>-0.03113807529999169</v>
+      </c>
+      <c r="J72">
+        <v>0.1345936031149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2743754885021241</v>
+        <v>0.2679188582800814</v>
       </c>
       <c r="C73">
-        <v>0.1960640268885993</v>
+        <v>0.1086800432338715</v>
       </c>
       <c r="D73">
-        <v>-0.005960316357859236</v>
+        <v>0.008125450050214516</v>
       </c>
       <c r="E73">
-        <v>-0.3108457330732481</v>
+        <v>-0.1850751719004529</v>
       </c>
       <c r="F73">
-        <v>0.09268320037753261</v>
+        <v>-0.2853047100801788</v>
       </c>
       <c r="G73">
-        <v>-0.3737119475346326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.105414688174184</v>
+      </c>
+      <c r="H73">
+        <v>0.4484333240991576</v>
+      </c>
+      <c r="I73">
+        <v>-0.3419877597992185</v>
+      </c>
+      <c r="J73">
+        <v>0.05565605602612443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1614033716753874</v>
+        <v>0.1527101931189654</v>
       </c>
       <c r="C74">
-        <v>0.006366036181219334</v>
+        <v>-0.02204133281862915</v>
       </c>
       <c r="D74">
-        <v>0.04097850644840492</v>
+        <v>0.04680076440837055</v>
       </c>
       <c r="E74">
-        <v>0.009447848927310912</v>
+        <v>0.01382377697601684</v>
       </c>
       <c r="F74">
-        <v>-0.05328333564048927</v>
+        <v>0.04172036484264768</v>
       </c>
       <c r="G74">
-        <v>-0.047619402529137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01434636159561831</v>
+      </c>
+      <c r="H74">
+        <v>0.02262440183620307</v>
+      </c>
+      <c r="I74">
+        <v>-0.01354286338986713</v>
+      </c>
+      <c r="J74">
+        <v>-0.08491347177540516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2370995777252867</v>
+        <v>0.241792345604802</v>
       </c>
       <c r="C75">
-        <v>0.009723434653923306</v>
+        <v>-0.02532694522152859</v>
       </c>
       <c r="D75">
-        <v>0.05392167969591823</v>
+        <v>0.09960099385330924</v>
       </c>
       <c r="E75">
-        <v>0.1214432346538349</v>
+        <v>0.02852520046540702</v>
       </c>
       <c r="F75">
-        <v>-0.06484838952151588</v>
+        <v>0.1322880326330215</v>
       </c>
       <c r="G75">
-        <v>-0.02867282746802743</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006547394413808813</v>
+      </c>
+      <c r="H75">
+        <v>0.01620625511962155</v>
+      </c>
+      <c r="I75">
+        <v>0.06532096743246033</v>
+      </c>
+      <c r="J75">
+        <v>-0.09722359097493384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2454256173441825</v>
+        <v>0.2678621955512713</v>
       </c>
       <c r="C76">
-        <v>0.0144313137367229</v>
+        <v>-0.01891748785437143</v>
       </c>
       <c r="D76">
-        <v>0.09376948199172594</v>
+        <v>0.1229644515052053</v>
       </c>
       <c r="E76">
-        <v>0.1137474968117866</v>
+        <v>0.07141687304056937</v>
       </c>
       <c r="F76">
-        <v>-0.08573303304552357</v>
+        <v>0.1559977396303023</v>
       </c>
       <c r="G76">
-        <v>-0.0463287281133015</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04531357029944896</v>
+      </c>
+      <c r="H76">
+        <v>0.03293087364157241</v>
+      </c>
+      <c r="I76">
+        <v>-0.02757751339926442</v>
+      </c>
+      <c r="J76">
+        <v>-0.1148280919477126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1221970372785658</v>
+        <v>0.1302339633643869</v>
       </c>
       <c r="C77">
-        <v>-0.01911805823116234</v>
+        <v>-0.05588112801389941</v>
       </c>
       <c r="D77">
-        <v>-0.04314008691880716</v>
+        <v>-0.0430464366198627</v>
       </c>
       <c r="E77">
-        <v>-0.169550539093072</v>
+        <v>-0.02842497751804978</v>
       </c>
       <c r="F77">
-        <v>0.02047251147240945</v>
+        <v>-0.1675281661522382</v>
       </c>
       <c r="G77">
-        <v>0.1627391362267433</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02957920130479425</v>
+      </c>
+      <c r="H77">
+        <v>-0.1909008230505543</v>
+      </c>
+      <c r="I77">
+        <v>0.1748190685129644</v>
+      </c>
+      <c r="J77">
+        <v>-0.1306148092420696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09211237558207329</v>
+        <v>0.08877407912889118</v>
       </c>
       <c r="C78">
-        <v>-0.03272543189989435</v>
+        <v>-0.05855188336001565</v>
       </c>
       <c r="D78">
-        <v>-0.01406905907782259</v>
+        <v>-0.003387989855989728</v>
       </c>
       <c r="E78">
-        <v>-0.06895735004262941</v>
+        <v>0.004201891214086955</v>
       </c>
       <c r="F78">
-        <v>0.01813590937998616</v>
+        <v>-0.08989873676147893</v>
       </c>
       <c r="G78">
-        <v>0.0003288759844384713</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.003741767524588772</v>
+      </c>
+      <c r="H78">
+        <v>-0.02478634075873989</v>
+      </c>
+      <c r="I78">
+        <v>0.03368332339997531</v>
+      </c>
+      <c r="J78">
+        <v>-0.01541225730586721</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06025852275854932</v>
+        <v>0.1151674679121651</v>
       </c>
       <c r="C80">
-        <v>-0.0005955909083866372</v>
+        <v>0.1484673286493426</v>
       </c>
       <c r="D80">
-        <v>-0.01493874916134706</v>
+        <v>-0.2913954134699845</v>
       </c>
       <c r="E80">
-        <v>-0.03244325108411815</v>
+        <v>0.8997762599356965</v>
       </c>
       <c r="F80">
-        <v>-0.0464277141151468</v>
+        <v>-0.1925421633331018</v>
       </c>
       <c r="G80">
-        <v>0.435399901292087</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01848117536880186</v>
+      </c>
+      <c r="H80">
+        <v>0.1031837740504185</v>
+      </c>
+      <c r="I80">
+        <v>-0.05599181546995196</v>
+      </c>
+      <c r="J80">
+        <v>0.06087263858418632</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1677233382476919</v>
+        <v>0.1793761335687702</v>
       </c>
       <c r="C81">
-        <v>0.007881715015848568</v>
+        <v>-0.008800397898538564</v>
       </c>
       <c r="D81">
-        <v>0.04110811597613106</v>
+        <v>0.08273184635307747</v>
       </c>
       <c r="E81">
-        <v>0.1272853194267702</v>
+        <v>0.03795787999214148</v>
       </c>
       <c r="F81">
-        <v>-0.1003706732271627</v>
+        <v>0.143758659270282</v>
       </c>
       <c r="G81">
-        <v>-0.04050876575169654</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02333765039868408</v>
+      </c>
+      <c r="H81">
+        <v>0.01644004835838753</v>
+      </c>
+      <c r="I81">
+        <v>0.02890465440703193</v>
+      </c>
+      <c r="J81">
+        <v>-0.04949937068601656</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08719547264613105</v>
+        <v>0.06740695710738888</v>
       </c>
       <c r="C83">
-        <v>-0.04252486590015647</v>
+        <v>-0.0436867074385056</v>
       </c>
       <c r="D83">
-        <v>-0.08996564772597844</v>
+        <v>-0.03848460790830053</v>
       </c>
       <c r="E83">
-        <v>-0.03788642912860481</v>
+        <v>-0.03461794326420915</v>
       </c>
       <c r="F83">
-        <v>0.0565093393613684</v>
+        <v>-0.05189343663974293</v>
       </c>
       <c r="G83">
-        <v>0.01178767217158693</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04402815170266698</v>
+      </c>
+      <c r="H83">
+        <v>-0.0345683708263313</v>
+      </c>
+      <c r="I83">
+        <v>0.01382436519758551</v>
+      </c>
+      <c r="J83">
+        <v>-0.0794070681346499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2395291391892282</v>
+        <v>0.2565525679514367</v>
       </c>
       <c r="C85">
-        <v>-0.05365865722233941</v>
+        <v>-0.0560592888179933</v>
       </c>
       <c r="D85">
-        <v>0.04847610554414533</v>
+        <v>0.08104636615423313</v>
       </c>
       <c r="E85">
-        <v>0.1391632074494835</v>
+        <v>0.06935351330158994</v>
       </c>
       <c r="F85">
-        <v>-0.06962555945862811</v>
+        <v>0.154257120719941</v>
       </c>
       <c r="G85">
-        <v>-0.0005809211923570605</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.008672810011097805</v>
+      </c>
+      <c r="H85">
+        <v>-0.01518075085118987</v>
+      </c>
+      <c r="I85">
+        <v>0.03460225958882913</v>
+      </c>
+      <c r="J85">
+        <v>-0.1177719567690838</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04965258915577292</v>
+        <v>0.03325782163925234</v>
       </c>
       <c r="C86">
-        <v>-0.04036857201089473</v>
+        <v>-0.04849187730574233</v>
       </c>
       <c r="D86">
-        <v>0.009733302221655605</v>
+        <v>0.004480103761062149</v>
       </c>
       <c r="E86">
-        <v>-0.05104207152347937</v>
+        <v>0.005670442341066647</v>
       </c>
       <c r="F86">
-        <v>0.001069759551426129</v>
+        <v>-0.06887099021165451</v>
       </c>
       <c r="G86">
-        <v>0.03430648983064179</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.002726294099726469</v>
+      </c>
+      <c r="H86">
+        <v>-0.05574335509762012</v>
+      </c>
+      <c r="I86">
+        <v>0.04750140386220141</v>
+      </c>
+      <c r="J86">
+        <v>-0.02308586322209574</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02599736558666096</v>
+        <v>0.03775531113498867</v>
       </c>
       <c r="C87">
-        <v>0.055348249867655</v>
+        <v>0.02141324959846287</v>
       </c>
       <c r="D87">
-        <v>0.02039386536499872</v>
+        <v>0.006916167362774246</v>
       </c>
       <c r="E87">
-        <v>-0.05829912014605639</v>
+        <v>-0.02259996827993509</v>
       </c>
       <c r="F87">
-        <v>0.05958333770077977</v>
+        <v>-0.09664398603710006</v>
       </c>
       <c r="G87">
-        <v>-0.1148298927937437</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02636630950937565</v>
+      </c>
+      <c r="H87">
+        <v>0.007434061246494773</v>
+      </c>
+      <c r="I87">
+        <v>-0.009205219193538866</v>
+      </c>
+      <c r="J87">
+        <v>0.06230816955479235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03932752140020485</v>
+        <v>0.02688720450336805</v>
       </c>
       <c r="C88">
-        <v>-0.02737251024539566</v>
+        <v>-0.01808373692652836</v>
       </c>
       <c r="D88">
-        <v>0.005816183338803211</v>
+        <v>0.01135399711995744</v>
       </c>
       <c r="E88">
-        <v>0.002235793086808693</v>
+        <v>0.02302113111360839</v>
       </c>
       <c r="F88">
-        <v>-0.01094779844574416</v>
+        <v>-0.0007275637238908487</v>
       </c>
       <c r="G88">
-        <v>0.04849493515380367</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02628351836143553</v>
+      </c>
+      <c r="H88">
+        <v>-0.04531434209003025</v>
+      </c>
+      <c r="I88">
+        <v>-0.02510889227179042</v>
+      </c>
+      <c r="J88">
+        <v>0.006185178931459895</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01724505533474289</v>
+        <v>0.05213449418507369</v>
       </c>
       <c r="C89">
-        <v>0.4134729816366304</v>
+        <v>0.3882272668257326</v>
       </c>
       <c r="D89">
-        <v>-0.08896861010073615</v>
+        <v>-0.02199442358627054</v>
       </c>
       <c r="E89">
-        <v>0.02406857183356882</v>
+        <v>-0.0845425474324633</v>
       </c>
       <c r="F89">
-        <v>0.005859846864247748</v>
+        <v>-0.008100594931583579</v>
       </c>
       <c r="G89">
-        <v>0.03080301500276199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.05134137274583164</v>
+      </c>
+      <c r="H89">
+        <v>-0.02023663887637076</v>
+      </c>
+      <c r="I89">
+        <v>0.2801602397558937</v>
+      </c>
+      <c r="J89">
+        <v>-0.00678079264095913</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.006163703192493137</v>
+        <v>0.03797197265386796</v>
       </c>
       <c r="C90">
-        <v>0.307575913452996</v>
+        <v>0.3331469909164979</v>
       </c>
       <c r="D90">
-        <v>-0.02171395618454794</v>
+        <v>-0.01205605476564485</v>
       </c>
       <c r="E90">
-        <v>-0.03094525090610284</v>
+        <v>-0.03698835281527359</v>
       </c>
       <c r="F90">
-        <v>0.01414554824827375</v>
+        <v>-0.03229677664739346</v>
       </c>
       <c r="G90">
-        <v>-0.06279912033307643</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02434983765654796</v>
+      </c>
+      <c r="H90">
+        <v>0.02626041550551858</v>
+      </c>
+      <c r="I90">
+        <v>0.2195436572774178</v>
+      </c>
+      <c r="J90">
+        <v>0.01651517121658341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3050553275823613</v>
+        <v>0.314928457902211</v>
       </c>
       <c r="C91">
-        <v>-0.02395131135656213</v>
+        <v>-0.04370811721562358</v>
       </c>
       <c r="D91">
-        <v>0.04196659077051964</v>
+        <v>0.09546366062137526</v>
       </c>
       <c r="E91">
-        <v>0.2643368387049037</v>
+        <v>0.06839372327416784</v>
       </c>
       <c r="F91">
-        <v>-0.1707262808703971</v>
+        <v>0.2816299717380431</v>
       </c>
       <c r="G91">
-        <v>0.04421951646771547</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.04042052280427297</v>
+      </c>
+      <c r="H91">
+        <v>0.02387573381980638</v>
+      </c>
+      <c r="I91">
+        <v>0.08108014194599707</v>
+      </c>
+      <c r="J91">
+        <v>-0.2209569675569592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.02226613846550018</v>
+        <v>0.08201786182204575</v>
       </c>
       <c r="C92">
-        <v>0.4398587796584221</v>
+        <v>0.4544389345556881</v>
       </c>
       <c r="D92">
-        <v>-0.2107025149545122</v>
+        <v>-0.04461873258731796</v>
       </c>
       <c r="E92">
-        <v>0.1031323922798647</v>
+        <v>-0.03723068109969559</v>
       </c>
       <c r="F92">
-        <v>-0.0959603126785802</v>
+        <v>0.1414837990794622</v>
       </c>
       <c r="G92">
-        <v>0.4451373615806967</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0323441967146883</v>
+      </c>
+      <c r="H92">
+        <v>-0.5315931287502286</v>
+      </c>
+      <c r="I92">
+        <v>-0.6600183244322884</v>
+      </c>
+      <c r="J92">
+        <v>-0.1406577481558936</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01697904252601084</v>
+        <v>0.04093286329204356</v>
       </c>
       <c r="C93">
-        <v>0.370951275483769</v>
+        <v>0.4050563462695159</v>
       </c>
       <c r="D93">
-        <v>-0.06818236231892778</v>
+        <v>-0.03165737787940376</v>
       </c>
       <c r="E93">
-        <v>0.04436753516579846</v>
+        <v>-0.0670045074369599</v>
       </c>
       <c r="F93">
-        <v>-0.02010339690674543</v>
+        <v>0.02868721307364918</v>
       </c>
       <c r="G93">
-        <v>0.02117180447527434</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04008901323811903</v>
+      </c>
+      <c r="H93">
+        <v>0.03422412975759587</v>
+      </c>
+      <c r="I93">
+        <v>0.1978120231814571</v>
+      </c>
+      <c r="J93">
+        <v>-0.008163777068939702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2994383640886596</v>
+        <v>0.319310926957018</v>
       </c>
       <c r="C94">
-        <v>0.0334469797109094</v>
+        <v>-0.002607811099376094</v>
       </c>
       <c r="D94">
-        <v>-0.005618272055714932</v>
+        <v>0.1459366544658326</v>
       </c>
       <c r="E94">
-        <v>0.3559118772619165</v>
+        <v>0.04510983183753636</v>
       </c>
       <c r="F94">
-        <v>-0.4247010053592712</v>
+        <v>0.3602123040043422</v>
       </c>
       <c r="G94">
-        <v>-0.01620269325815742</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1730369810228896</v>
+      </c>
+      <c r="H94">
+        <v>-0.08038470985841807</v>
+      </c>
+      <c r="I94">
+        <v>0.1275499800939605</v>
+      </c>
+      <c r="J94">
+        <v>0.332888367614478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.2023998654778109</v>
+        <v>0.137461954532888</v>
       </c>
       <c r="C95">
-        <v>0.02581767759196372</v>
+        <v>-0.06151545311600885</v>
       </c>
       <c r="D95">
-        <v>-0.01449186218311273</v>
+        <v>0.04496058045444366</v>
       </c>
       <c r="E95">
-        <v>0.455864654044016</v>
+        <v>-0.02776538248702798</v>
       </c>
       <c r="F95">
-        <v>0.8162807975641169</v>
+        <v>0.04822342281565544</v>
       </c>
       <c r="G95">
-        <v>0.1088066093838744</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.935664786907309</v>
+      </c>
+      <c r="H95">
+        <v>0.04914204972488607</v>
+      </c>
+      <c r="I95">
+        <v>-0.04373064455433261</v>
+      </c>
+      <c r="J95">
+        <v>0.2000714292788156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.214864983022468</v>
+        <v>0.2033370079726015</v>
       </c>
       <c r="C98">
-        <v>0.1402269222726026</v>
+        <v>0.07730372045679743</v>
       </c>
       <c r="D98">
-        <v>-0.02662473653069415</v>
+        <v>0.0007819519820939865</v>
       </c>
       <c r="E98">
-        <v>-0.1064310750949462</v>
+        <v>-0.1338302827264583</v>
       </c>
       <c r="F98">
-        <v>0.04547528998965934</v>
+        <v>-0.1330345747906171</v>
       </c>
       <c r="G98">
-        <v>-0.2495616768153691</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.04337979409277384</v>
+      </c>
+      <c r="H98">
+        <v>0.3108998428634676</v>
+      </c>
+      <c r="I98">
+        <v>-0.1980093304317931</v>
+      </c>
+      <c r="J98">
+        <v>-0.009056585699043971</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02074255803696386</v>
+        <v>0.01507745909908864</v>
       </c>
       <c r="C101">
-        <v>-0.01653415387898339</v>
+        <v>-0.02934998208177341</v>
       </c>
       <c r="D101">
-        <v>0.02337465677303898</v>
+        <v>0.02549972385406676</v>
       </c>
       <c r="E101">
-        <v>-0.02868143854838579</v>
+        <v>0.008535916412123753</v>
       </c>
       <c r="F101">
-        <v>0.006453930360809937</v>
+        <v>-0.06885754669615056</v>
       </c>
       <c r="G101">
-        <v>0.03627504880000666</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.008709695583402387</v>
+      </c>
+      <c r="H101">
+        <v>-0.1133978491373353</v>
+      </c>
+      <c r="I101">
+        <v>-0.01288735603260402</v>
+      </c>
+      <c r="J101">
+        <v>0.1868484662765936</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1203294386537474</v>
+        <v>0.1215853699016571</v>
       </c>
       <c r="C102">
-        <v>-0.01023519062188636</v>
+        <v>-0.0265237064095725</v>
       </c>
       <c r="D102">
-        <v>0.03486331704878285</v>
+        <v>0.04971793338264984</v>
       </c>
       <c r="E102">
-        <v>0.08843335627967042</v>
+        <v>0.04233532764927852</v>
       </c>
       <c r="F102">
-        <v>-0.008172333544350119</v>
+        <v>0.08457989684316145</v>
       </c>
       <c r="G102">
-        <v>0.0008378834460076584</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02996782023071724</v>
+      </c>
+      <c r="H102">
+        <v>0.01450084737101776</v>
+      </c>
+      <c r="I102">
+        <v>0.03622122667391151</v>
+      </c>
+      <c r="J102">
+        <v>-0.04583112637605501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01910561038283926</v>
+        <v>0.03074420729467015</v>
       </c>
       <c r="C103">
-        <v>-0.001103145866456159</v>
+        <v>-0.006238034121190198</v>
       </c>
       <c r="D103">
-        <v>0.0116766601523574</v>
+        <v>0.0172649389082674</v>
       </c>
       <c r="E103">
-        <v>0.02277529549095691</v>
+        <v>0.02351095397523434</v>
       </c>
       <c r="F103">
-        <v>-0.01040172672087992</v>
+        <v>0.01451373320792677</v>
       </c>
       <c r="G103">
-        <v>-0.007279191248535484</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01424513527551317</v>
+      </c>
+      <c r="H103">
+        <v>-0.01366608419563813</v>
+      </c>
+      <c r="I103">
+        <v>0.02855686726528277</v>
+      </c>
+      <c r="J103">
+        <v>-0.01172190308784341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
